--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,76 +666,84 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1500</v>
       </c>
       <c r="H8" s="3">
         <v>1500</v>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +985,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="F18" s="3">
         <v>1300</v>
       </c>
       <c r="G18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
-        <v>1200</v>
-      </c>
       <c r="I18" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="J18" s="3">
         <v>1200</v>
       </c>
       <c r="K18" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L18" s="3">
         <v>1200</v>
       </c>
       <c r="M18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1143,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-4300</v>
       </c>
       <c r="F20" s="3">
         <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>-900</v>
+        <v>-2000</v>
       </c>
       <c r="H20" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-900</v>
       </c>
       <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
       </c>
       <c r="M20" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1262,96 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
+        <v>700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1406,17 +1528,17 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="F32" s="3">
         <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>900</v>
       </c>
       <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3">
         <v>1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
       </c>
       <c r="M32" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,69 +1879,77 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E42" s="3">
         <v>3300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J42" s="3">
         <v>2500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2200</v>
       </c>
       <c r="L42" s="3">
         <v>2200</v>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2080,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,28 +2162,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3900</v>
       </c>
       <c r="J48" s="3">
         <v>3900</v>
@@ -1982,21 +2198,27 @@
         <v>3900</v>
       </c>
       <c r="L48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
@@ -2007,23 +2229,29 @@
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>168900</v>
+      </c>
+      <c r="F54" s="3">
         <v>163200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>144100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>145000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>144200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>143300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>144700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>141900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>143200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2487,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2262,8 +2524,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2565,55 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,43 +2688,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
-        <v>600</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>154700</v>
+      </c>
+      <c r="F66" s="3">
         <v>149400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>131100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>132200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>131400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>130900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>132300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>129500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>130700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F72" s="3">
         <v>16000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>15300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>14600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F76" s="3">
         <v>13800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,96 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
-        <v>43100</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1500</v>
       </c>
       <c r="J8" s="3">
         <v>1500</v>
@@ -769,8 +774,11 @@
       <c r="O8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +818,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +862,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,37 +1073,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1085,39 +1113,42 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="3">
         <v>5500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2700</v>
       </c>
       <c r="H18" s="3">
         <v>1300</v>
       </c>
       <c r="I18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1200</v>
       </c>
       <c r="M18" s="3">
         <v>1200</v>
@@ -1126,10 +1157,13 @@
         <v>1200</v>
       </c>
       <c r="O18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1179,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-1100</v>
       </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1265,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,76 +1309,82 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>900</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>700</v>
       </c>
       <c r="H23" s="3">
         <v>200</v>
       </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-400</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1345,13 +1392,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>700</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>600</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1534,14 +1596,14 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1555,8 +1617,11 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>4300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>1100</v>
       </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>800</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
-        <v>800</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
-        <v>900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>600</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>600</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
-        <v>43100</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>20800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1931,28 +2022,28 @@
         <v>3400</v>
       </c>
       <c r="E42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>3300</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>3300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2200</v>
       </c>
       <c r="M42" s="3">
         <v>2200</v>
@@ -1963,8 +2054,11 @@
       <c r="O42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2098,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2142,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2186,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2230,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,31 +2274,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>3800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3900</v>
       </c>
       <c r="K48" s="3">
         <v>3900</v>
@@ -2204,28 +2313,31 @@
         <v>3900</v>
       </c>
       <c r="N48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="O48" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2235,23 +2347,26 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2450,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2494,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E54" s="3">
         <v>194500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>168900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>163200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>144100</v>
       </c>
-      <c r="I54" s="3">
-        <v>145000</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>144200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>143200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2620,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,17 +2632,17 @@
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2530,8 +2662,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,49 +2706,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,13 +2794,16 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2694,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2705,38 +2852,41 @@
       <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>600</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E66" s="3">
         <v>179300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>154700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>149400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>131100</v>
       </c>
-      <c r="I66" s="3">
-        <v>132200</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>131400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>130900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>129500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>130700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E72" s="3">
         <v>17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>16000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>15300</v>
       </c>
-      <c r="I72" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>14600</v>
       </c>
       <c r="M72" s="3">
         <v>14600</v>
       </c>
       <c r="N72" s="3">
+        <v>14600</v>
+      </c>
+      <c r="O72" s="3">
         <v>14500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>14200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>13000</v>
       </c>
-      <c r="I76" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12400</v>
       </c>
       <c r="M76" s="3">
         <v>12400</v>
       </c>
       <c r="N76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O76" s="3">
         <v>12500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
-        <v>43100</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>600</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3891,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3935,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3997,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4129,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4120,8 +4367,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4411,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4453,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1500</v>
       </c>
       <c r="K8" s="3">
         <v>1500</v>
@@ -777,8 +781,11 @@
       <c r="P8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,8 +828,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +875,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +988,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1035,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,40 +1100,41 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1116,42 +1143,45 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1200</v>
       </c>
       <c r="N18" s="3">
         <v>1200</v>
@@ -1160,10 +1190,13 @@
         <v>1200</v>
       </c>
       <c r="P18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,52 +1213,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,8 +1305,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,82 +1352,88 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1395,13 +1441,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1602,11 +1663,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,84 +2055,88 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20800</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E42" s="3">
         <v>3400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3300</v>
+      <c r="F42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="3">
         <v>3300</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="K42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2200</v>
       </c>
       <c r="N42" s="3">
         <v>2200</v>
@@ -2057,8 +2147,11 @@
       <c r="P42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2101,8 +2194,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,8 +2241,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2189,8 +2288,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2233,8 +2335,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,34 +2382,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="I48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3900</v>
       </c>
       <c r="L48" s="3">
         <v>3900</v>
@@ -2316,31 +2424,34 @@
         <v>3900</v>
       </c>
       <c r="O48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="P48" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2350,23 +2461,26 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2570,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2497,8 +2617,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E54" s="3">
         <v>206800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>194500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>168900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>144100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>141900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>143200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,8 +2751,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,20 +2763,20 @@
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2665,8 +2796,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2709,52 +2843,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2797,8 +2937,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2949,7 @@
         <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2841,8 +2984,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2852,41 +2998,44 @@
       <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
       <c r="M62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E66" s="3">
         <v>191100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>179300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>154700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>131100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>130900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>132300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>130700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E72" s="3">
         <v>17400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>15300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>14600</v>
       </c>
       <c r="N72" s="3">
         <v>14600</v>
       </c>
       <c r="O72" s="3">
+        <v>14600</v>
+      </c>
+      <c r="P72" s="3">
         <v>14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E76" s="3">
         <v>15700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>14200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>12400</v>
       </c>
       <c r="N76" s="3">
         <v>12400</v>
       </c>
       <c r="O76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P76" s="3">
         <v>12500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +3828,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,8 +4108,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3938,8 +4155,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4176,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4000,8 +4221,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,8 +4315,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4132,8 +4362,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,8 +4569,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4370,8 +4616,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,8 +4663,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4456,6 +4708,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1500</v>
       </c>
       <c r="L8" s="3">
         <v>1500</v>
@@ -784,8 +788,11 @@
       <c r="Q8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,8 +838,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +888,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1058,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,43 +1127,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1146,45 +1173,48 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1200</v>
       </c>
       <c r="O18" s="3">
         <v>1200</v>
@@ -1193,10 +1223,13 @@
         <v>1200</v>
       </c>
       <c r="Q18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,55 +1247,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,8 +1345,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,55 +1395,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1411,32 +1457,32 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1444,13 +1490,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1666,11 +1727,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,22 +2142,23 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H41" s="3">
         <v>7400</v>
@@ -2079,46 +2166,49 @@
       <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E42" s="3">
         <v>3500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3400</v>
       </c>
       <c r="F42" s="3">
         <v>3400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="G42" s="3">
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
         <v>3300</v>
@@ -2126,20 +2216,20 @@
       <c r="I42" s="3">
         <v>3300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="J42" s="3">
         <v>3300</v>
       </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2200</v>
       </c>
       <c r="O42" s="3">
         <v>2200</v>
@@ -2150,8 +2240,11 @@
       <c r="Q42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2197,8 +2290,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2340,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2291,8 +2390,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2338,8 +2440,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2385,22 +2490,25 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H48" s="3">
         <v>5400</v>
@@ -2408,14 +2516,14 @@
       <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="M48" s="3">
         <v>3900</v>
@@ -2427,24 +2535,27 @@
         <v>3900</v>
       </c>
       <c r="P48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="Q48" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
@@ -2464,23 +2575,26 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,8 +2690,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2620,8 +2740,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,22 +2790,25 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E54" s="3">
         <v>229700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>206800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>194500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H54" s="3">
         <v>168900</v>
@@ -2690,32 +2816,35 @@
       <c r="I54" s="3">
         <v>163200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="J54" s="3">
         <v>144100</v>
       </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L54" s="3">
+        <v>144100</v>
+      </c>
+      <c r="M54" s="3">
         <v>144200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>143300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>141900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>143200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,8 +2882,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2766,8 +2897,8 @@
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2775,11 +2906,11 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2799,8 +2930,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2846,55 +2980,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2940,8 +3080,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2952,7 +3095,7 @@
         <v>1000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2987,13 +3130,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3001,8 +3147,8 @@
       <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3010,32 +3156,35 @@
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
       </c>
       <c r="P62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,22 +3330,25 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>215900</v>
+      </c>
+      <c r="E66" s="3">
         <v>212500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>191100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>179300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H66" s="3">
         <v>154700</v>
@@ -3198,32 +3356,35 @@
       <c r="I66" s="3">
         <v>149400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="J66" s="3">
         <v>131100</v>
       </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L66" s="3">
+        <v>131100</v>
+      </c>
+      <c r="M66" s="3">
         <v>131400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>130900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>132300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>130700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,22 +3600,25 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E72" s="3">
         <v>19200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H72" s="3">
         <v>16200</v>
@@ -3452,32 +3626,35 @@
       <c r="I72" s="3">
         <v>16000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="J72" s="3">
         <v>15300</v>
       </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>14600</v>
       </c>
       <c r="O72" s="3">
         <v>14600</v>
       </c>
       <c r="P72" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>14500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,22 +3800,25 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E76" s="3">
         <v>17200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H76" s="3">
         <v>14200</v>
@@ -3640,32 +3826,35 @@
       <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="J76" s="3">
         <v>13000</v>
       </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M76" s="3">
         <v>12700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>12400</v>
       </c>
       <c r="O76" s="3">
         <v>12400</v>
       </c>
       <c r="P76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,8 +4325,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4158,8 +4375,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4397,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4224,8 +4445,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,8 +4545,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4365,8 +4595,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,8 +4815,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4619,8 +4865,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4666,8 +4915,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4711,6 +4963,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
@@ -1184,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
         <v>1600</v>
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
         <v>-900</v>
@@ -1404,7 +1404,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>600</v>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
@@ -1604,7 +1604,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
         <v>500</v>
@@ -1854,7 +1854,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
         <v>900</v>
@@ -1904,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
@@ -2004,7 +2004,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
@@ -3964,7 +3964,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
         <v>500</v>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="G8" s="3">
         <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1500</v>
       </c>
       <c r="O8" s="3">
         <v>1500</v>
@@ -791,8 +802,17 @@
       <c r="R8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,8 +861,17 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +920,17 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +949,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,8 +1002,17 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,8 +1061,17 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,8 +1120,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1179,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1205,129 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1200</v>
       </c>
       <c r="P18" s="3">
         <v>1200</v>
       </c>
       <c r="Q18" s="3">
+        <v>900</v>
+      </c>
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,58 +1346,70 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-900</v>
       </c>
       <c r="O20" s="3">
         <v>-1100</v>
       </c>
       <c r="P20" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="Q20" s="3">
         <v>-900</v>
       </c>
       <c r="R20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1348,8 +1458,17 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,58 +1517,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>500</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
+        <v>900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>700</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="T23" s="3">
+        <v>400</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1466,40 +1603,49 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1694,135 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>400</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,31 +1871,40 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1730,8 +1912,8 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1739,8 +1921,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -1748,8 +1930,17 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1989,17 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,108 +2048,135 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>900</v>
       </c>
       <c r="O32" s="3">
         <v>1100</v>
       </c>
       <c r="P32" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q32" s="3">
         <v>900</v>
       </c>
       <c r="R32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>900</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
+        <v>400</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2225,140 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
+        <v>400</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2377,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,108 +2400,129 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G41" s="3">
         <v>29300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>10900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>7500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J42" s="3">
         <v>3400</v>
       </c>
-      <c r="G42" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>3300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>3300</v>
       </c>
       <c r="M42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P42" s="3">
         <v>2500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>2300</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>2200</v>
       </c>
       <c r="R42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2293,8 +2571,17 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2343,8 +2630,17 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2393,8 +2689,17 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2443,8 +2748,17 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2493,108 +2807,135 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>3800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3900</v>
       </c>
       <c r="P48" s="3">
         <v>3900</v>
       </c>
       <c r="Q48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T48" s="3">
         <v>4000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2984,17 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,8 +3043,17 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2743,8 +3102,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +3161,76 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>244400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>233800</v>
+      </c>
+      <c r="G54" s="3">
         <v>234000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
+        <v>222400</v>
+      </c>
+      <c r="I54" s="3">
         <v>229700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>206800</v>
       </c>
-      <c r="G54" s="3">
-        <v>194500</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>168900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>163200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>144100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>144100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>144200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>143300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>144700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>141900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>143200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +3249,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,13 +3272,16 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2907,19 +3299,19 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2933,8 +3325,17 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2983,58 +3384,76 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3083,31 +3502,40 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>900</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3133,8 +3561,17 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,49 +3579,58 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>800</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>500</v>
+      </c>
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3679,17 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3738,17 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3797,76 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>228000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>217100</v>
+      </c>
+      <c r="G66" s="3">
         <v>215900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
+        <v>204800</v>
+      </c>
+      <c r="I66" s="3">
         <v>212500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>191100</v>
       </c>
-      <c r="G66" s="3">
-        <v>179300</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>154700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>149400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>131100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>131100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>131400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>130900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>132300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>129500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>130700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3885,11 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3938,17 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3997,17 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +4056,17 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +4115,76 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G72" s="3">
         <v>20300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I72" s="3">
         <v>19200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>17400</v>
       </c>
-      <c r="G72" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>15300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>15300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>14800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>14500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>14600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>14600</v>
       </c>
       <c r="Q72" s="3">
         <v>14500</v>
       </c>
       <c r="R72" s="3">
+        <v>14600</v>
+      </c>
+      <c r="S72" s="3">
+        <v>14600</v>
+      </c>
+      <c r="T72" s="3">
+        <v>14500</v>
+      </c>
+      <c r="U72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4233,17 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +4292,17 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +4351,76 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G76" s="3">
         <v>18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I76" s="3">
         <v>17200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>15700</v>
       </c>
-      <c r="G76" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>13800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>12700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>12500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>12400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>12400</v>
       </c>
       <c r="Q76" s="3">
         <v>12500</v>
       </c>
       <c r="R76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>12500</v>
+      </c>
+      <c r="U76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4469,140 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
+        <v>400</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,8 +4621,11 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4078,8 +4674,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4733,17 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4792,17 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4851,17 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4910,17 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,8 +4969,17 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4378,8 +5028,17 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,8 +5057,11 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4448,8 +5110,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +5169,17 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,8 +5228,17 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4598,8 +5287,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +5316,11 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4668,8 +5369,17 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +5428,17 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5487,17 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,8 +5546,17 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4868,8 +5605,17 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4918,8 +5664,17 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4966,6 +5721,15 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIBN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>CIBN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,144 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2200</v>
       </c>
       <c r="I8" s="3">
         <v>2000</v>
       </c>
       <c r="J8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1500</v>
       </c>
       <c r="Q8" s="3">
         <v>1500</v>
@@ -811,8 +819,14 @@
       <c r="U8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,8 +884,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +949,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,8 +978,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1011,8 +1039,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,8 +1104,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1129,8 +1169,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,8 +1234,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1208,126 +1260,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2700</v>
       </c>
       <c r="O18" s="3">
         <v>1300</v>
       </c>
       <c r="P18" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="Q18" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="R18" s="3">
         <v>1200</v>
       </c>
       <c r="S18" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T18" s="3">
         <v>1200</v>
       </c>
       <c r="U18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,67 +1415,75 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-1100</v>
       </c>
       <c r="P20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-900</v>
       </c>
       <c r="U20" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1467,8 +1541,14 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1526,8 +1606,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1535,58 +1621,64 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>700</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
       </c>
       <c r="P23" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>400</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,34 +1686,34 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1633,19 +1725,25 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1703,126 +1801,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>600</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>600</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1880,8 +1996,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,11 +2028,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1921,14 +2043,14 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -1939,8 +2061,14 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1998,8 +2126,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2057,126 +2191,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>1100</v>
       </c>
       <c r="P32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>900</v>
       </c>
       <c r="U32" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>900</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>600</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2234,131 +2386,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>600</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2380,8 +2550,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2403,117 +2575,125 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>29300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>31800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>4200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G42" s="3">
         <v>3600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3700</v>
       </c>
       <c r="H42" s="3">
         <v>3500</v>
       </c>
       <c r="I42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J42" s="3">
         <v>3500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L42" s="3">
         <v>3400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3300</v>
       </c>
       <c r="M42" s="3">
         <v>3300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
+      <c r="N42" s="3">
+        <v>3300</v>
       </c>
       <c r="O42" s="3">
         <v>3300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R42" s="3">
         <v>2500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2300</v>
-      </c>
-      <c r="R42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S42" s="3">
-        <v>2200</v>
       </c>
       <c r="T42" s="3">
         <v>2200</v>
@@ -2521,8 +2701,14 @@
       <c r="U42" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W42" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2580,8 +2766,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2639,8 +2831,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2698,8 +2896,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2757,8 +2961,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2816,52 +3026,58 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>3800</v>
       </c>
-      <c r="P48" s="3">
-        <v>3900</v>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="R48" s="3">
         <v>3900</v>
@@ -2870,13 +3086,19 @@
         <v>3900</v>
       </c>
       <c r="T48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V48" s="3">
         <v>4000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2889,27 +3111,27 @@
       <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2919,23 +3141,29 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2993,8 +3221,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3052,8 +3286,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3111,8 +3351,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3170,67 +3416,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>261400</v>
+      </c>
+      <c r="F54" s="3">
         <v>253600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>244400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>233800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>234000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>222400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>229700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>206800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>168900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>163200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>144100</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O54" s="3">
         <v>144100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>144100</v>
+      </c>
+      <c r="R54" s="3">
         <v>144200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>143300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>144700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>141900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>143200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>140300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3252,8 +3510,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3275,19 +3535,21 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3308,16 +3570,16 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3334,8 +3596,14 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3393,67 +3661,79 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3511,25 +3791,31 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
@@ -3538,10 +3824,10 @@
         <v>1000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3570,67 +3856,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3688,8 +3986,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3747,8 +4051,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3806,67 +4116,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>244300</v>
+      </c>
+      <c r="F66" s="3">
         <v>236900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>228000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>217100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>215900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>204800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>212500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>191100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>154700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>149400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>131100</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O66" s="3">
         <v>131100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>131100</v>
+      </c>
+      <c r="R66" s="3">
         <v>131400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>130900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>132300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>129500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>130700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +4210,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3947,8 +4271,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4006,8 +4336,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4065,8 +4401,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4124,67 +4466,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F72" s="3">
         <v>21100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>20800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>20300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>19500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>19200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>15300</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O72" s="3">
         <v>15300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="R72" s="3">
         <v>14800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>14600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>14500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4242,8 +4596,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4301,8 +4661,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4360,67 +4726,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>13000</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R76" s="3">
         <v>12700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4478,131 +4856,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>600</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4624,8 +5020,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4683,8 +5081,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4742,8 +5146,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4801,8 +5211,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,8 +5276,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4919,8 +5341,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4978,8 +5406,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5037,8 +5471,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5060,8 +5500,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5119,8 +5561,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5178,8 +5626,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5237,8 +5691,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5296,8 +5756,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5319,8 +5785,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5378,8 +5846,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5437,8 +5911,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5496,8 +5976,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5555,8 +6041,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5614,8 +6106,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5673,8 +6171,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5730,6 +6234,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
